--- a/DMSNewVSale_2025-10-30_13-33.xlsx
+++ b/DMSNewVSale_2025-10-30_13-33.xlsx
@@ -92,6 +92,21 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -128,9 +143,6 @@
     <t>79.2000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
   </si>
   <si>
@@ -210,9 +222,6 @@
   </si>
   <si>
     <t>STOPADOL COLD MAX TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>46.00</t>
@@ -1078,7 +1087,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1087,31 +1096,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1120,20 +1129,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1160,24 +1169,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1186,20 +1195,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1210,7 +1219,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1243,7 +1252,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1259,21 +1268,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>15</v>
@@ -1285,7 +1294,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1302,11 +1311,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>15</v>
@@ -1318,28 +1327,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>15</v>
@@ -1351,7 +1360,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1368,11 +1377,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>15</v>
@@ -1384,7 +1393,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1401,11 +1410,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>15</v>
@@ -1417,20 +1426,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1441,7 +1450,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1457,24 +1466,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1483,7 +1492,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1500,11 +1509,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>15</v>
@@ -1523,7 +1532,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1533,14 +1542,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1549,14 +1558,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1566,14 +1575,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1582,31 +1591,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1615,14 +1624,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1632,51 +1641,84 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="26.25" customHeight="1">
-      <c r="N29" s="13">
-        <v>1887.6500000000001</v>
-      </c>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>89</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>90</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>11</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>20</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>83</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q29" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="N30" s="13">
+        <v>1912.6500000000001</v>
+      </c>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>92</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>93</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>94</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1795,10 +1837,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
